--- a/results/mp/tinybert/corona/confidence/84/topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,60 +40,48 @@
     <t>name</t>
   </si>
   <si>
-    <t>kills</t>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>crude</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -115,118 +100,166 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>$</t>
+  </si>
+  <si>
+    <t>our</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>!</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>to</t>
@@ -235,19 +268,25 @@
     <t>a</t>
   </si>
   <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>of</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>the</t>
+  </si>
+  <si>
+    <t>in</t>
   </si>
 </sst>
 </file>
@@ -605,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,10 +652,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,10 +716,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -695,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -716,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -724,13 +763,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,19 +781,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -766,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -774,13 +813,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -792,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -816,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -824,13 +863,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -842,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -866,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -874,13 +913,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.84</v>
+        <v>0.6335616438356164</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -916,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -924,13 +963,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8181818181818182</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -942,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -966,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -974,13 +1013,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7402597402597403</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C9">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -992,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8823529411764706</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1016,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1024,13 +1063,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7058823529411765</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1042,31 +1081,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L10">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>22</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>5</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10">
-        <v>0.875</v>
-      </c>
-      <c r="L10">
-        <v>14</v>
-      </c>
-      <c r="M10">
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1074,13 +1113,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1092,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1116,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1124,13 +1163,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5833333333333334</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1142,31 +1181,31 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L12">
+        <v>19</v>
+      </c>
+      <c r="M12">
+        <v>19</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L12">
-        <v>44</v>
-      </c>
-      <c r="M12">
-        <v>44</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1174,13 +1213,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5416666666666666</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1192,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.803921568627451</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1216,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1224,13 +1263,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4285714285714285</v>
+        <v>0.2209302325581395</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1242,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>402</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.8035714285714286</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1266,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1274,13 +1313,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3809523809523809</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1292,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7578125</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1316,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1324,13 +1363,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3684210526315789</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1342,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.7241379310344828</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1366,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1374,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3605150214592275</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="C17">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1392,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.72</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1416,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1424,13 +1463,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.313953488372093</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1442,19 +1481,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>59</v>
+        <v>325</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.6923076923076923</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L18">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="M18">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1466,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1474,13 +1513,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2962962962962963</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1492,295 +1531,175 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>0.7169811320754716</v>
+      </c>
+      <c r="L19">
+        <v>76</v>
+      </c>
+      <c r="M19">
+        <v>76</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20">
+        <v>0.7125</v>
+      </c>
+      <c r="L20">
+        <v>114</v>
+      </c>
+      <c r="M20">
+        <v>114</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="L21">
+        <v>33</v>
+      </c>
+      <c r="M21">
+        <v>33</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="L22">
+        <v>17</v>
+      </c>
+      <c r="M22">
+        <v>17</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23">
+        <v>0.6276595744680851</v>
+      </c>
+      <c r="L23">
+        <v>59</v>
+      </c>
+      <c r="M23">
+        <v>59</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K19">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L19">
-        <v>18</v>
-      </c>
-      <c r="M19">
-        <v>18</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2758620689655172</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>21</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20">
-        <v>0.6712328767123288</v>
-      </c>
-      <c r="L20">
-        <v>49</v>
-      </c>
-      <c r="M20">
-        <v>49</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
+      <c r="K24">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="L24">
+        <v>37</v>
+      </c>
+      <c r="M24">
+        <v>37</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.2125</v>
-      </c>
-      <c r="C21">
-        <v>17</v>
-      </c>
-      <c r="D21">
-        <v>17</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>63</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L21">
-        <v>26</v>
-      </c>
-      <c r="M21">
-        <v>26</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.1555555555555556</v>
-      </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>114</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L22">
-        <v>11</v>
-      </c>
-      <c r="M22">
-        <v>11</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.1</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>99</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L23">
-        <v>14</v>
-      </c>
-      <c r="M23">
-        <v>14</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.05913978494623656</v>
-      </c>
-      <c r="C24">
-        <v>11</v>
-      </c>
-      <c r="D24">
-        <v>11</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>175</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L24">
-        <v>7</v>
-      </c>
-      <c r="M24">
-        <v>7</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L25">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1792,21 +1711,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1818,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.5757575757575758</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1844,21 +1763,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.5539906103286385</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L28">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1870,21 +1789,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.5294117647058824</v>
+        <v>0.5195822454308094</v>
       </c>
       <c r="L29">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="M29">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1896,21 +1815,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.5069444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1922,21 +1841,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K31">
         <v>0.5</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1948,21 +1867,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.4961240310077519</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L32">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="M32">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1974,21 +1893,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>0.4021739130434783</v>
+        <v>0.4779661016949153</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2000,21 +1919,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>55</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K34">
-        <v>0.4</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2026,21 +1945,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K35">
-        <v>0.3428571428571429</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L35">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2052,21 +1971,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K36">
-        <v>0.3243243243243243</v>
+        <v>0.3472803347280335</v>
       </c>
       <c r="L36">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="M36">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2078,21 +1997,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K37">
-        <v>0.2894736842105263</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2104,21 +2023,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K38">
-        <v>0.25</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L38">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2130,21 +2049,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K39">
-        <v>0.04040404040404041</v>
+        <v>0.325</v>
       </c>
       <c r="L39">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2156,21 +2075,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>190</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K40">
-        <v>0.03728070175438596</v>
+        <v>0.296875</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2182,21 +2101,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>439</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K41">
-        <v>0.03658536585365853</v>
+        <v>0.2769230769230769</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2208,21 +2127,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>395</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K42">
-        <v>0.03286384976525822</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2234,47 +2153,47 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>412</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K43">
-        <v>0.01090074584050488</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N43">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>1724</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K44">
-        <v>0.01064962726304579</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L44">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2286,21 +2205,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>929</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K45">
-        <v>0.009916492693110648</v>
+        <v>0.03588516746411483</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2312,111 +2231,579 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>1897</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K46">
-        <v>0.009626955475330927</v>
+        <v>0.03551609322974473</v>
       </c>
       <c r="L46">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="M46">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="N46">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>823</v>
+        <v>869</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K47">
-        <v>0.007543103448275862</v>
+        <v>0.0347985347985348</v>
       </c>
       <c r="L47">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>921</v>
+        <v>527</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K48">
-        <v>0.007360672975814932</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="L48">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N48">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>944</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K49">
+        <v>0.03355704697986577</v>
+      </c>
+      <c r="L49">
+        <v>30</v>
+      </c>
+      <c r="M49">
+        <v>30</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50">
+        <v>0.02862985685071575</v>
+      </c>
+      <c r="L50">
+        <v>14</v>
+      </c>
+      <c r="M50">
+        <v>14</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K51">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="L51">
+        <v>32</v>
+      </c>
+      <c r="M51">
+        <v>32</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K52">
+        <v>0.02330293819655522</v>
+      </c>
+      <c r="L52">
+        <v>23</v>
+      </c>
+      <c r="M52">
+        <v>25</v>
+      </c>
+      <c r="N52">
+        <v>0.92</v>
+      </c>
+      <c r="O52">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K53">
+        <v>0.01884473576403113</v>
+      </c>
+      <c r="L53">
+        <v>46</v>
+      </c>
+      <c r="M53">
+        <v>50</v>
+      </c>
+      <c r="N53">
+        <v>0.92</v>
+      </c>
+      <c r="O53">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K49">
-        <v>0.005533199195171026</v>
-      </c>
-      <c r="L49">
-        <v>11</v>
-      </c>
-      <c r="M49">
-        <v>12</v>
-      </c>
-      <c r="N49">
+      <c r="K54">
+        <v>0.01756587202007528</v>
+      </c>
+      <c r="L54">
+        <v>28</v>
+      </c>
+      <c r="M54">
+        <v>28</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K55">
+        <v>0.01688311688311688</v>
+      </c>
+      <c r="L55">
+        <v>13</v>
+      </c>
+      <c r="M55">
+        <v>13</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K56">
+        <v>0.01631701631701632</v>
+      </c>
+      <c r="L56">
+        <v>21</v>
+      </c>
+      <c r="M56">
+        <v>23</v>
+      </c>
+      <c r="N56">
+        <v>0.91</v>
+      </c>
+      <c r="O56">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K57">
+        <v>0.0157244477723699</v>
+      </c>
+      <c r="L57">
+        <v>42</v>
+      </c>
+      <c r="M57">
+        <v>44</v>
+      </c>
+      <c r="N57">
+        <v>0.95</v>
+      </c>
+      <c r="O57">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K58">
+        <v>0.0134297520661157</v>
+      </c>
+      <c r="L58">
+        <v>13</v>
+      </c>
+      <c r="M58">
+        <v>13</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K59">
+        <v>0.01132947976878613</v>
+      </c>
+      <c r="L59">
+        <v>49</v>
+      </c>
+      <c r="M59">
+        <v>52</v>
+      </c>
+      <c r="N59">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O59">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K60">
+        <v>0.01127004768097096</v>
+      </c>
+      <c r="L60">
+        <v>26</v>
+      </c>
+      <c r="M60">
+        <v>28</v>
+      </c>
+      <c r="N60">
+        <v>0.93</v>
+      </c>
+      <c r="O60">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K61">
+        <v>0.01029411764705882</v>
+      </c>
+      <c r="L61">
+        <v>14</v>
+      </c>
+      <c r="M61">
+        <v>17</v>
+      </c>
+      <c r="N61">
+        <v>0.82</v>
+      </c>
+      <c r="O61">
+        <v>0.18</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K62">
+        <v>0.009676062263357174</v>
+      </c>
+      <c r="L62">
+        <v>23</v>
+      </c>
+      <c r="M62">
+        <v>25</v>
+      </c>
+      <c r="N62">
         <v>0.92</v>
       </c>
-      <c r="O49">
+      <c r="O62">
         <v>0.07999999999999996</v>
       </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>1977</v>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K63">
+        <v>0.009617311160088158</v>
+      </c>
+      <c r="L63">
+        <v>48</v>
+      </c>
+      <c r="M63">
+        <v>53</v>
+      </c>
+      <c r="N63">
+        <v>0.91</v>
+      </c>
+      <c r="O63">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>4943</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K64">
+        <v>0.009341429238673517</v>
+      </c>
+      <c r="L64">
+        <v>20</v>
+      </c>
+      <c r="M64">
+        <v>22</v>
+      </c>
+      <c r="N64">
+        <v>0.91</v>
+      </c>
+      <c r="O64">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K65">
+        <v>0.009017713365539453</v>
+      </c>
+      <c r="L65">
+        <v>28</v>
+      </c>
+      <c r="M65">
+        <v>30</v>
+      </c>
+      <c r="N65">
+        <v>0.93</v>
+      </c>
+      <c r="O65">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K66">
+        <v>0.008137957760124007</v>
+      </c>
+      <c r="L66">
+        <v>42</v>
+      </c>
+      <c r="M66">
+        <v>46</v>
+      </c>
+      <c r="N66">
+        <v>0.91</v>
+      </c>
+      <c r="O66">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K67">
+        <v>0.007881316643486324</v>
+      </c>
+      <c r="L67">
+        <v>17</v>
+      </c>
+      <c r="M67">
+        <v>18</v>
+      </c>
+      <c r="N67">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O67">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>2140</v>
       </c>
     </row>
   </sheetData>
